--- a/test/files/viffer/short/2.xlsx
+++ b/test/files/viffer/short/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26460" tabRatio="353"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15660" tabRatio="353"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3196,7 +3196,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -3384,7 +3384,7 @@
         <v>71</v>
       </c>
       <c r="N7" s="25">
-        <v>15007</v>
+        <v>15006</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="28" customFormat="1" ht="13" customHeight="1">
@@ -3407,7 +3407,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="25">
-        <v>15008</v>
+        <v>15007</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" ht="13" customHeight="1">
@@ -3430,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N9" s="25"/>
     </row>
